--- a/opcodes.xlsx
+++ b/opcodes.xlsx
@@ -240,7 +240,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,13 +262,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -280,15 +292,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -604,10 +619,10 @@
   <dimension ref="A1:M70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A69" sqref="A69"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,7 +684,7 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>2</v>
       </c>
       <c r="D2">
@@ -1231,7 +1246,7 @@
       <c r="A54" t="s">
         <v>56</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="3">
         <v>2</v>
       </c>
       <c r="D54">

--- a/opcodes.xlsx
+++ b/opcodes.xlsx
@@ -240,7 +240,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,13 +249,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="5"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
       <color theme="8"/>
       <name val="Calibri"/>
@@ -263,8 +257,10 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="5"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -279,7 +275,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -292,18 +289,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -622,7 +617,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,16 +691,16 @@
       <c r="G2">
         <v>4</v>
       </c>
-      <c r="H2" s="2">
-        <v>4</v>
-      </c>
-      <c r="I2" s="2">
+      <c r="H2" s="1">
+        <v>4</v>
+      </c>
+      <c r="I2" s="1">
         <v>4</v>
       </c>
       <c r="K2">
         <v>6</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>5</v>
       </c>
     </row>
@@ -713,7 +708,7 @@
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>2</v>
       </c>
       <c r="D3">
@@ -725,16 +720,16 @@
       <c r="G3">
         <v>4</v>
       </c>
-      <c r="H3" s="2">
-        <v>4</v>
-      </c>
-      <c r="I3" s="2">
+      <c r="H3" s="1">
+        <v>4</v>
+      </c>
+      <c r="I3" s="1">
         <v>4</v>
       </c>
       <c r="K3">
         <v>6</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <v>5</v>
       </c>
     </row>
@@ -742,7 +737,7 @@
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>2</v>
       </c>
       <c r="D4">
@@ -754,16 +749,16 @@
       <c r="G4">
         <v>4</v>
       </c>
-      <c r="H4" s="2">
-        <v>4</v>
-      </c>
-      <c r="I4" s="2">
+      <c r="H4" s="1">
+        <v>4</v>
+      </c>
+      <c r="I4" s="1">
         <v>4</v>
       </c>
       <c r="K4">
         <v>6</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="1">
         <v>5</v>
       </c>
     </row>
@@ -771,7 +766,7 @@
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>2</v>
       </c>
       <c r="D5">
@@ -783,16 +778,16 @@
       <c r="G5">
         <v>4</v>
       </c>
-      <c r="H5" s="2">
-        <v>4</v>
-      </c>
-      <c r="I5" s="2">
+      <c r="H5" s="1">
+        <v>4</v>
+      </c>
+      <c r="I5" s="1">
         <v>4</v>
       </c>
       <c r="K5">
         <v>6</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="1">
         <v>5</v>
       </c>
     </row>
@@ -800,7 +795,7 @@
       <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>2</v>
       </c>
       <c r="D6">
@@ -812,16 +807,16 @@
       <c r="G6">
         <v>4</v>
       </c>
-      <c r="H6" s="2">
-        <v>4</v>
-      </c>
-      <c r="I6" s="2">
+      <c r="H6" s="1">
+        <v>4</v>
+      </c>
+      <c r="I6" s="1">
         <v>4</v>
       </c>
       <c r="K6">
         <v>6</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="1">
         <v>5</v>
       </c>
     </row>
@@ -829,7 +824,7 @@
       <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>2</v>
       </c>
       <c r="D8">
@@ -849,7 +844,7 @@
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>2</v>
       </c>
       <c r="D9">
@@ -869,7 +864,7 @@
       <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>2</v>
       </c>
       <c r="D10">
@@ -889,7 +884,7 @@
       <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>2</v>
       </c>
       <c r="D11">
@@ -926,7 +921,7 @@
       <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>2</v>
       </c>
     </row>
@@ -934,7 +929,7 @@
       <c r="A15" t="s">
         <v>23</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>2</v>
       </c>
     </row>
@@ -959,7 +954,7 @@
       <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <v>2</v>
       </c>
     </row>
@@ -967,7 +962,7 @@
       <c r="A18" t="s">
         <v>26</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="3">
         <v>2</v>
       </c>
     </row>
@@ -998,16 +993,16 @@
       <c r="G21">
         <v>4</v>
       </c>
-      <c r="H21" s="2">
-        <v>4</v>
-      </c>
-      <c r="I21" s="2">
+      <c r="H21" s="1">
+        <v>4</v>
+      </c>
+      <c r="I21" s="1">
         <v>4</v>
       </c>
       <c r="K21">
         <v>6</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L21" s="1">
         <v>5</v>
       </c>
     </row>
@@ -1043,7 +1038,7 @@
       <c r="A25" t="s">
         <v>31</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25" s="2">
         <v>2</v>
       </c>
     </row>
@@ -1051,7 +1046,7 @@
       <c r="A26" t="s">
         <v>32</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M26" s="2">
         <v>2</v>
       </c>
     </row>
@@ -1059,7 +1054,7 @@
       <c r="A27" t="s">
         <v>33</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M27" s="2">
         <v>2</v>
       </c>
     </row>
@@ -1067,7 +1062,7 @@
       <c r="A28" t="s">
         <v>34</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M28" s="2">
         <v>2</v>
       </c>
     </row>
@@ -1075,7 +1070,7 @@
       <c r="A29" t="s">
         <v>35</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M29" s="2">
         <v>2</v>
       </c>
     </row>
@@ -1083,7 +1078,7 @@
       <c r="A30" t="s">
         <v>36</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M30" s="2">
         <v>2</v>
       </c>
     </row>
@@ -1091,7 +1086,7 @@
       <c r="A31" t="s">
         <v>37</v>
       </c>
-      <c r="M31" s="1">
+      <c r="M31" s="2">
         <v>2</v>
       </c>
     </row>
@@ -1099,7 +1094,7 @@
       <c r="A32" t="s">
         <v>38</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M32" s="2">
         <v>2</v>
       </c>
     </row>
@@ -1258,16 +1253,16 @@
       <c r="G54">
         <v>4</v>
       </c>
-      <c r="H54" s="2">
-        <v>4</v>
-      </c>
-      <c r="I54" s="2">
+      <c r="H54" s="1">
+        <v>4</v>
+      </c>
+      <c r="I54" s="1">
         <v>4</v>
       </c>
       <c r="K54">
         <v>6</v>
       </c>
-      <c r="L54" s="2">
+      <c r="L54" s="1">
         <v>5</v>
       </c>
     </row>
@@ -1287,7 +1282,7 @@
       <c r="G55">
         <v>4</v>
       </c>
-      <c r="I55" s="2">
+      <c r="I55" s="1">
         <v>4</v>
       </c>
     </row>
@@ -1307,7 +1302,7 @@
       <c r="G56">
         <v>4</v>
       </c>
-      <c r="H56" s="2">
+      <c r="H56" s="1">
         <v>4</v>
       </c>
     </row>

--- a/opcodes.xlsx
+++ b/opcodes.xlsx
@@ -614,10 +614,10 @@
   <dimension ref="A1:M70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,7 +688,7 @@
       <c r="E2">
         <v>4</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>4</v>
       </c>
       <c r="H2" s="1">
@@ -717,7 +717,7 @@
       <c r="E3">
         <v>4</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>4</v>
       </c>
       <c r="H3" s="1">
@@ -746,7 +746,7 @@
       <c r="E4">
         <v>4</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>4</v>
       </c>
       <c r="H4" s="1">
@@ -775,7 +775,7 @@
       <c r="E5">
         <v>4</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>4</v>
       </c>
       <c r="H5" s="1">
@@ -804,7 +804,7 @@
       <c r="E6">
         <v>4</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>4</v>
       </c>
       <c r="H6" s="1">
@@ -1102,7 +1102,7 @@
       <c r="A34" t="s">
         <v>39</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="3">
         <v>3</v>
       </c>
       <c r="J34">
@@ -1250,7 +1250,7 @@
       <c r="E54">
         <v>4</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="3">
         <v>4</v>
       </c>
       <c r="H54" s="1">
@@ -1270,7 +1270,7 @@
       <c r="A55" t="s">
         <v>57</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="3">
         <v>2</v>
       </c>
       <c r="D55">
@@ -1279,7 +1279,7 @@
       <c r="F55">
         <v>4</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="3">
         <v>4</v>
       </c>
       <c r="I55" s="1">
@@ -1290,7 +1290,7 @@
       <c r="A56" t="s">
         <v>58</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="3">
         <v>2</v>
       </c>
       <c r="D56">
@@ -1299,7 +1299,7 @@
       <c r="E56">
         <v>4</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="3">
         <v>4</v>
       </c>
       <c r="H56" s="1">
@@ -1316,7 +1316,7 @@
       <c r="E57">
         <v>4</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="3">
         <v>4</v>
       </c>
       <c r="H57">
@@ -1342,7 +1342,7 @@
       <c r="F58">
         <v>4</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="3">
         <v>4</v>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       <c r="E59">
         <v>4</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="3">
         <v>4</v>
       </c>
     </row>

--- a/opcodes.xlsx
+++ b/opcodes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="69">
   <si>
     <t>Imp</t>
   </si>
@@ -230,10 +230,7 @@
     <t>NOP</t>
   </si>
   <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
+    <t>Op</t>
   </si>
 </sst>
 </file>
@@ -280,9 +277,18 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -292,11 +298,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -611,13 +619,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M70"/>
+  <dimension ref="A1:AA35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,9 +643,26 @@
     <col min="11" max="11" width="4.375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.25" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.25" customWidth="1"/>
+    <col min="15" max="15" width="4.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="2.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -674,8 +699,47 @@
       <c r="M1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -703,8 +767,17 @@
       <c r="L2" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" s="3">
+        <v>3</v>
+      </c>
+      <c r="X2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -732,8 +805,14 @@
       <c r="L3" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="U3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -761,8 +840,14 @@
       <c r="L4" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -790,8 +875,14 @@
       <c r="L5" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -820,7 +911,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="P7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -839,8 +938,14 @@
       <c r="H8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -859,8 +964,14 @@
       <c r="H9">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -879,8 +990,14 @@
       <c r="H10">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -899,8 +1016,22 @@
       <c r="H11">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="O12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="P12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -916,8 +1047,14 @@
       <c r="H13">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -925,15 +1062,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="P15" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -949,24 +1092,50 @@
       <c r="H16">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P16" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="O19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P19" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -976,8 +1145,14 @@
       <c r="G20">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="P20" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1006,7 +1181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1019,8 +1194,35 @@
       <c r="G22">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O22" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>2</v>
+      </c>
+      <c r="R22">
+        <v>3</v>
+      </c>
+      <c r="S22">
+        <v>4</v>
+      </c>
+      <c r="U22" s="3">
+        <v>4</v>
+      </c>
+      <c r="V22" s="1">
+        <v>4</v>
+      </c>
+      <c r="W22" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y22">
+        <v>6</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1033,32 +1235,118 @@
       <c r="G23">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O23" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>2</v>
+      </c>
+      <c r="R23">
+        <v>3</v>
+      </c>
+      <c r="T23">
+        <v>4</v>
+      </c>
+      <c r="U23" s="3">
+        <v>4</v>
+      </c>
+      <c r="W23" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="O24" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>2</v>
+      </c>
+      <c r="R24">
+        <v>3</v>
+      </c>
+      <c r="S24">
+        <v>4</v>
+      </c>
+      <c r="U24" s="3">
+        <v>4</v>
+      </c>
+      <c r="V24" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
       <c r="M25" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O25" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="R25">
+        <v>3</v>
+      </c>
+      <c r="S25">
+        <v>4</v>
+      </c>
+      <c r="U25" s="3">
+        <v>4</v>
+      </c>
+      <c r="V25">
+        <v>5</v>
+      </c>
+      <c r="W25">
+        <v>5</v>
+      </c>
+      <c r="Y25">
+        <v>6</v>
+      </c>
+      <c r="Z25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
       <c r="M26" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="R26">
+        <v>3</v>
+      </c>
+      <c r="T26">
+        <v>4</v>
+      </c>
+      <c r="U26" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
       <c r="M27" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O27" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="R27">
+        <v>3</v>
+      </c>
+      <c r="S27">
+        <v>4</v>
+      </c>
+      <c r="U27" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1066,452 +1354,76 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
       <c r="M29" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O29" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
       <c r="M30" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O30" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="P30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>37</v>
       </c>
       <c r="M31" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O31" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>38</v>
       </c>
       <c r="M32" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>39</v>
-      </c>
-      <c r="G34" s="3">
-        <v>3</v>
-      </c>
-      <c r="J34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>40</v>
-      </c>
-      <c r="G35">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>47</v>
-      </c>
-      <c r="B43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>54</v>
-      </c>
-      <c r="B51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>55</v>
-      </c>
-      <c r="B52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>56</v>
-      </c>
-      <c r="C54" s="3">
-        <v>2</v>
-      </c>
-      <c r="D54">
-        <v>3</v>
-      </c>
-      <c r="E54">
-        <v>4</v>
-      </c>
-      <c r="G54" s="3">
-        <v>4</v>
-      </c>
-      <c r="H54" s="1">
-        <v>4</v>
-      </c>
-      <c r="I54" s="1">
-        <v>4</v>
-      </c>
-      <c r="K54">
-        <v>6</v>
-      </c>
-      <c r="L54" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>57</v>
-      </c>
-      <c r="C55" s="3">
-        <v>2</v>
-      </c>
-      <c r="D55">
-        <v>3</v>
-      </c>
-      <c r="F55">
-        <v>4</v>
-      </c>
-      <c r="G55" s="3">
-        <v>4</v>
-      </c>
-      <c r="I55" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>58</v>
-      </c>
-      <c r="C56" s="3">
-        <v>2</v>
-      </c>
-      <c r="D56">
-        <v>3</v>
-      </c>
-      <c r="E56">
-        <v>4</v>
-      </c>
-      <c r="G56" s="3">
-        <v>4</v>
-      </c>
-      <c r="H56" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>59</v>
-      </c>
-      <c r="D57">
-        <v>3</v>
-      </c>
-      <c r="E57">
-        <v>4</v>
-      </c>
-      <c r="G57" s="3">
-        <v>4</v>
-      </c>
-      <c r="H57">
-        <v>5</v>
-      </c>
-      <c r="I57">
-        <v>5</v>
-      </c>
-      <c r="K57">
-        <v>6</v>
-      </c>
-      <c r="L57">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>60</v>
-      </c>
-      <c r="D58">
-        <v>3</v>
-      </c>
-      <c r="F58">
-        <v>4</v>
-      </c>
-      <c r="G58" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>61</v>
-      </c>
-      <c r="D59">
-        <v>3</v>
-      </c>
-      <c r="E59">
-        <v>4</v>
-      </c>
-      <c r="G59" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>62</v>
-      </c>
-      <c r="B61">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>63</v>
-      </c>
-      <c r="B62">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>64</v>
-      </c>
-      <c r="B63">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="O32" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B64">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="P32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="15:27" x14ac:dyDescent="0.25">
+      <c r="O34" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="M66">
+      <c r="AA34">
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="35" spans="15:27" x14ac:dyDescent="0.25">
+      <c r="O35" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>68</v>
-      </c>
-      <c r="B69">
-        <f>MIN(B2:B67)</f>
-        <v>2</v>
-      </c>
-      <c r="C69">
-        <f t="shared" ref="C69:M69" si="0">MIN(C2:C67)</f>
-        <v>2</v>
-      </c>
-      <c r="D69">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="E69">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F69">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="G69">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H69">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I69">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="J69">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="K69">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="L69">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="M69">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>69</v>
-      </c>
-      <c r="B70">
-        <f>MAX(B2:B67)</f>
-        <v>6</v>
-      </c>
-      <c r="C70">
-        <f t="shared" ref="C70:M70" si="1">MAX(C2:C67)</f>
-        <v>2</v>
-      </c>
-      <c r="D70">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E70">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="F70">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="G70">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="H70">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="I70">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="J70">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="K70">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="L70">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="M70">
-        <f t="shared" si="1"/>
-        <v>7</v>
+      <c r="P35">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/opcodes.xlsx
+++ b/opcodes.xlsx
@@ -912,10 +912,10 @@
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="O7" s="4" t="s">
+      <c r="O7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="3">
         <v>2</v>
       </c>
     </row>
@@ -938,10 +938,10 @@
       <c r="H8">
         <v>7</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="O8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="3">
         <v>2</v>
       </c>
     </row>
@@ -964,10 +964,10 @@
       <c r="H9">
         <v>7</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="O9" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="3">
         <v>2</v>
       </c>
     </row>
@@ -990,10 +990,10 @@
       <c r="H10">
         <v>7</v>
       </c>
-      <c r="O10" s="4" t="s">
+      <c r="O10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1016,18 +1016,18 @@
       <c r="H11">
         <v>7</v>
       </c>
-      <c r="O11" s="4" t="s">
+      <c r="O11" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="O12" s="4" t="s">
+      <c r="O12" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="3">
         <v>2</v>
       </c>
     </row>
@@ -1047,10 +1047,10 @@
       <c r="H13">
         <v>7</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="O13" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="3">
         <v>2</v>
       </c>
     </row>

--- a/opcodes.xlsx
+++ b/opcodes.xlsx
@@ -263,18 +263,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -298,18 +292,115 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -644,7 +735,7 @@
     <col min="12" max="12" width="4.25" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="2.875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4.25" customWidth="1"/>
-    <col min="15" max="15" width="4.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.375" style="3" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="3.875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="4.375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="3.625" bestFit="1" customWidth="1"/>
@@ -699,7 +790,7 @@
       <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>68</v>
       </c>
       <c r="P1" t="s">
@@ -743,7 +834,7 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2">
         <v>2</v>
       </c>
       <c r="D2">
@@ -752,7 +843,7 @@
       <c r="E2">
         <v>4</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2">
         <v>4</v>
       </c>
       <c r="H2" s="1">
@@ -767,10 +858,10 @@
       <c r="L2" s="1">
         <v>5</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="U2" s="3">
+      <c r="U2">
         <v>3</v>
       </c>
       <c r="X2">
@@ -781,7 +872,7 @@
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
@@ -790,7 +881,7 @@
       <c r="E3">
         <v>4</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3">
         <v>4</v>
       </c>
       <c r="H3" s="1">
@@ -805,7 +896,7 @@
       <c r="L3" s="1">
         <v>5</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="3" t="s">
         <v>40</v>
       </c>
       <c r="U3">
@@ -816,7 +907,7 @@
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
@@ -825,7 +916,7 @@
       <c r="E4">
         <v>4</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4">
         <v>4</v>
       </c>
       <c r="H4" s="1">
@@ -840,7 +931,7 @@
       <c r="L4" s="1">
         <v>5</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="3" t="s">
         <v>41</v>
       </c>
       <c r="P4">
@@ -851,7 +942,7 @@
       <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
@@ -860,7 +951,7 @@
       <c r="E5">
         <v>4</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5">
         <v>4</v>
       </c>
       <c r="H5" s="1">
@@ -875,7 +966,7 @@
       <c r="L5" s="1">
         <v>5</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="3" t="s">
         <v>42</v>
       </c>
       <c r="P5">
@@ -886,7 +977,7 @@
       <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
@@ -895,7 +986,7 @@
       <c r="E6">
         <v>4</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6">
         <v>4</v>
       </c>
       <c r="H6" s="1">
@@ -912,10 +1003,10 @@
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="O7" s="5" t="s">
+      <c r="O7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7">
         <v>2</v>
       </c>
     </row>
@@ -923,7 +1014,7 @@
       <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>2</v>
       </c>
       <c r="D8">
@@ -938,10 +1029,10 @@
       <c r="H8">
         <v>7</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="O8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8">
         <v>2</v>
       </c>
     </row>
@@ -949,7 +1040,7 @@
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9">
         <v>2</v>
       </c>
       <c r="D9">
@@ -964,10 +1055,10 @@
       <c r="H9">
         <v>7</v>
       </c>
-      <c r="O9" s="5" t="s">
+      <c r="O9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9">
         <v>2</v>
       </c>
     </row>
@@ -975,7 +1066,7 @@
       <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10">
         <v>2</v>
       </c>
       <c r="D10">
@@ -990,10 +1081,10 @@
       <c r="H10">
         <v>7</v>
       </c>
-      <c r="O10" s="5" t="s">
+      <c r="O10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10">
         <v>2</v>
       </c>
     </row>
@@ -1001,7 +1092,7 @@
       <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11">
         <v>2</v>
       </c>
       <c r="D11">
@@ -1016,18 +1107,18 @@
       <c r="H11">
         <v>7</v>
       </c>
-      <c r="O11" s="5" t="s">
+      <c r="O11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P11">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="O12" s="5" t="s">
+      <c r="O12" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12">
         <v>2</v>
       </c>
     </row>
@@ -1047,10 +1138,10 @@
       <c r="H13">
         <v>7</v>
       </c>
-      <c r="O13" s="5" t="s">
+      <c r="O13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="P13" s="3">
+      <c r="P13">
         <v>2</v>
       </c>
     </row>
@@ -1058,7 +1149,7 @@
       <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14">
         <v>2</v>
       </c>
     </row>
@@ -1066,13 +1157,13 @@
       <c r="A15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="3">
-        <v>2</v>
-      </c>
-      <c r="O15" s="5" t="s">
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="O15" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15">
         <v>2</v>
       </c>
     </row>
@@ -1092,10 +1183,10 @@
       <c r="H16">
         <v>7</v>
       </c>
-      <c r="O16" s="5" t="s">
+      <c r="O16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="P16" s="3">
+      <c r="P16">
         <v>2</v>
       </c>
     </row>
@@ -1103,13 +1194,13 @@
       <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="3">
-        <v>2</v>
-      </c>
-      <c r="O17" s="5" t="s">
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="O17" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17">
         <v>2</v>
       </c>
     </row>
@@ -1117,21 +1208,21 @@
       <c r="A18" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="3">
-        <v>2</v>
-      </c>
-      <c r="O18" s="5" t="s">
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="O18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="O19" s="5" t="s">
+      <c r="O19" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="P19" s="3">
+      <c r="P19">
         <v>2</v>
       </c>
     </row>
@@ -1145,10 +1236,10 @@
       <c r="G20">
         <v>4</v>
       </c>
-      <c r="O20" s="5" t="s">
+      <c r="O20" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20">
         <v>2</v>
       </c>
     </row>
@@ -1194,10 +1285,10 @@
       <c r="G22">
         <v>4</v>
       </c>
-      <c r="O22" s="4" t="s">
+      <c r="O22" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q22">
         <v>2</v>
       </c>
       <c r="R22">
@@ -1206,7 +1297,7 @@
       <c r="S22">
         <v>4</v>
       </c>
-      <c r="U22" s="3">
+      <c r="U22">
         <v>4</v>
       </c>
       <c r="V22" s="1">
@@ -1235,10 +1326,10 @@
       <c r="G23">
         <v>4</v>
       </c>
-      <c r="O23" s="4" t="s">
+      <c r="O23" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="Q23">
         <v>2</v>
       </c>
       <c r="R23">
@@ -1247,7 +1338,7 @@
       <c r="T23">
         <v>4</v>
       </c>
-      <c r="U23" s="3">
+      <c r="U23">
         <v>4</v>
       </c>
       <c r="W23" s="1">
@@ -1255,10 +1346,10 @@
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="O24" s="4" t="s">
+      <c r="O24" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="Q24">
         <v>2</v>
       </c>
       <c r="R24">
@@ -1267,7 +1358,7 @@
       <c r="S24">
         <v>4</v>
       </c>
-      <c r="U24" s="3">
+      <c r="U24">
         <v>4</v>
       </c>
       <c r="V24" s="1">
@@ -1281,7 +1372,7 @@
       <c r="M25" s="2">
         <v>2</v>
       </c>
-      <c r="O25" s="4" t="s">
+      <c r="O25" s="3" t="s">
         <v>59</v>
       </c>
       <c r="R25">
@@ -1290,7 +1381,7 @@
       <c r="S25">
         <v>4</v>
       </c>
-      <c r="U25" s="3">
+      <c r="U25">
         <v>4</v>
       </c>
       <c r="V25">
@@ -1313,7 +1404,7 @@
       <c r="M26" s="2">
         <v>2</v>
       </c>
-      <c r="O26" s="4" t="s">
+      <c r="O26" s="3" t="s">
         <v>60</v>
       </c>
       <c r="R26">
@@ -1322,7 +1413,7 @@
       <c r="T26">
         <v>4</v>
       </c>
-      <c r="U26" s="3">
+      <c r="U26">
         <v>4</v>
       </c>
     </row>
@@ -1333,7 +1424,7 @@
       <c r="M27" s="2">
         <v>2</v>
       </c>
-      <c r="O27" s="4" t="s">
+      <c r="O27" s="3" t="s">
         <v>61</v>
       </c>
       <c r="R27">
@@ -1342,7 +1433,7 @@
       <c r="S27">
         <v>4</v>
       </c>
-      <c r="U27" s="3">
+      <c r="U27">
         <v>4</v>
       </c>
     </row>
@@ -1361,7 +1452,7 @@
       <c r="M29" s="2">
         <v>2</v>
       </c>
-      <c r="O29" s="4" t="s">
+      <c r="O29" s="3" t="s">
         <v>62</v>
       </c>
       <c r="P29">
@@ -1375,7 +1466,7 @@
       <c r="M30" s="2">
         <v>2</v>
       </c>
-      <c r="O30" s="4" t="s">
+      <c r="O30" s="3" t="s">
         <v>63</v>
       </c>
       <c r="P30">
@@ -1389,7 +1480,7 @@
       <c r="M31" s="2">
         <v>2</v>
       </c>
-      <c r="O31" s="4" t="s">
+      <c r="O31" s="3" t="s">
         <v>64</v>
       </c>
       <c r="P31">
@@ -1403,7 +1494,7 @@
       <c r="M32" s="2">
         <v>2</v>
       </c>
-      <c r="O32" s="4" t="s">
+      <c r="O32" s="3" t="s">
         <v>65</v>
       </c>
       <c r="P32">
@@ -1411,7 +1502,7 @@
       </c>
     </row>
     <row r="34" spans="15:27" x14ac:dyDescent="0.25">
-      <c r="O34" s="4" t="s">
+      <c r="O34" s="3" t="s">
         <v>66</v>
       </c>
       <c r="AA34">
@@ -1419,7 +1510,7 @@
       </c>
     </row>
     <row r="35" spans="15:27" x14ac:dyDescent="0.25">
-      <c r="O35" s="4" t="s">
+      <c r="O35" s="3" t="s">
         <v>67</v>
       </c>
       <c r="P35">
@@ -1427,6 +1518,11 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A7:M7 Q15:XFD20 O21:XFD21 O3:XFD6 A2:B6 H2:M6 O14:XFD14 Q7:XFD13 O28:XFD34 O22:P24 R22:T24 O25:T27 V22:XFD27 D2:F6 A12:M13 A8:A11 C8:M11 A16:M16 A14:A15 C14:M15 A19:M1048576 A17:A18 C17:M18 O2:T2 V2:XFD2 O36:XFD1048576 Q35:XFD35">
+    <cfRule type="notContainsBlanks" dxfId="13" priority="1">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/opcodes.xlsx
+++ b/opcodes.xlsx
@@ -301,7 +301,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="16">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1518,8 +1532,8 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A7:M7 Q15:XFD20 O21:XFD21 O3:XFD6 A2:B6 H2:M6 O14:XFD14 Q7:XFD13 O28:XFD34 O22:P24 R22:T24 O25:T27 V22:XFD27 D2:F6 A12:M13 A8:A11 C8:M11 A16:M16 A14:A15 C14:M15 A19:M1048576 A17:A18 C17:M18 O2:T2 V2:XFD2 O36:XFD1048576 Q35:XFD35">
-    <cfRule type="notContainsBlanks" dxfId="13" priority="1">
+  <conditionalFormatting sqref="A7:M7 Q15:XFD20 O21:XFD21 O3:XFD6 A2:B6 H2:M6 O14:XFD14 Q7:XFD13 O28:XFD34 O22:P24 R22:T24 O25:T27 V22:XFD27 D2:F6 A12:M13 A8:A11 C8:M11 A16:M16 A14:A15 C14:M15 A19:M19 A17:A18 C17:M18 O2:T2 V2:XFD2 O36:XFD1048576 Q35:XFD35 A24:M1048576 A21:B23 D21:F23 A20:F20 H20:M23">
+    <cfRule type="notContainsBlanks" dxfId="15" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/opcodes.xlsx
+++ b/opcodes.xlsx
@@ -32,36 +32,12 @@
     <t>Imm</t>
   </si>
   <si>
-    <t>Zpg</t>
-  </si>
-  <si>
-    <t>ZpgX</t>
-  </si>
-  <si>
-    <t>ZpgY</t>
-  </si>
-  <si>
     <t>Abs</t>
   </si>
   <si>
-    <t>AbsX</t>
-  </si>
-  <si>
-    <t>AbsY</t>
-  </si>
-  <si>
     <t>Ind</t>
   </si>
   <si>
-    <t>IndX</t>
-  </si>
-  <si>
-    <t>IndY</t>
-  </si>
-  <si>
-    <t>Rlt</t>
-  </si>
-  <si>
     <t>ADC</t>
   </si>
   <si>
@@ -231,6 +207,30 @@
   </si>
   <si>
     <t>Op</t>
+  </si>
+  <si>
+    <t>Zp</t>
+  </si>
+  <si>
+    <t>ZpX</t>
+  </si>
+  <si>
+    <t>ZpY</t>
+  </si>
+  <si>
+    <t>AbX</t>
+  </si>
+  <si>
+    <t>AbY</t>
+  </si>
+  <si>
+    <t>IzX</t>
+  </si>
+  <si>
+    <t>IzY</t>
+  </si>
+  <si>
+    <t>Rel</t>
   </si>
 </sst>
 </file>
@@ -301,7 +301,49 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="22">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -741,12 +783,12 @@
     <col min="4" max="4" width="3.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="2.875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4.25" customWidth="1"/>
     <col min="15" max="15" width="4.375" style="3" bestFit="1" customWidth="1"/>
@@ -766,7 +808,7 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -775,37 +817,37 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
@@ -814,39 +856,39 @@
         <v>1</v>
       </c>
       <c r="R1" t="s">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="S1" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="T1" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="U1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V1" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="W1" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="X1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Y1" t="s">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="Z1" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="AA1" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -858,22 +900,22 @@
         <v>4</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H2" s="1">
-        <v>4</v>
-      </c>
-      <c r="I2" s="1">
-        <v>4</v>
-      </c>
-      <c r="K2">
-        <v>6</v>
-      </c>
-      <c r="L2" s="1">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2" s="1">
+        <v>4</v>
+      </c>
+      <c r="K2" s="1">
+        <v>4</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="U2">
         <v>3</v>
@@ -884,7 +926,7 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -896,22 +938,22 @@
         <v>4</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H3" s="1">
-        <v>4</v>
-      </c>
-      <c r="I3" s="1">
-        <v>4</v>
-      </c>
-      <c r="K3">
-        <v>6</v>
-      </c>
-      <c r="L3" s="1">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="J3" s="1">
+        <v>4</v>
+      </c>
+      <c r="K3" s="1">
+        <v>4</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="U3">
         <v>6</v>
@@ -919,7 +961,7 @@
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -931,22 +973,22 @@
         <v>4</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H4" s="1">
-        <v>4</v>
-      </c>
-      <c r="I4" s="1">
-        <v>4</v>
-      </c>
-      <c r="K4">
-        <v>6</v>
-      </c>
-      <c r="L4" s="1">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4" s="1">
+        <v>4</v>
+      </c>
+      <c r="K4" s="1">
+        <v>4</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="P4">
         <v>6</v>
@@ -954,7 +996,7 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -966,22 +1008,22 @@
         <v>4</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H5" s="1">
-        <v>4</v>
-      </c>
-      <c r="I5" s="1">
-        <v>4</v>
-      </c>
-      <c r="K5">
-        <v>6</v>
-      </c>
-      <c r="L5" s="1">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5" s="1">
+        <v>4</v>
+      </c>
+      <c r="K5" s="1">
+        <v>4</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="P5">
         <v>6</v>
@@ -989,7 +1031,7 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1001,24 +1043,24 @@
         <v>4</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H6" s="1">
-        <v>4</v>
-      </c>
-      <c r="I6" s="1">
-        <v>4</v>
-      </c>
-      <c r="K6">
-        <v>6</v>
-      </c>
-      <c r="L6" s="1">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6" s="1">
+        <v>4</v>
+      </c>
+      <c r="K6" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="O7" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="P7">
         <v>2</v>
@@ -1026,7 +1068,7 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -1037,14 +1079,14 @@
       <c r="E8">
         <v>6</v>
       </c>
-      <c r="G8">
-        <v>6</v>
-      </c>
-      <c r="H8">
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8">
         <v>7</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="P8">
         <v>2</v>
@@ -1052,7 +1094,7 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -1063,14 +1105,14 @@
       <c r="E9">
         <v>6</v>
       </c>
-      <c r="G9">
-        <v>6</v>
-      </c>
-      <c r="H9">
+      <c r="I9">
+        <v>6</v>
+      </c>
+      <c r="J9">
         <v>7</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="P9">
         <v>2</v>
@@ -1078,7 +1120,7 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -1089,14 +1131,14 @@
       <c r="E10">
         <v>6</v>
       </c>
-      <c r="G10">
-        <v>6</v>
-      </c>
-      <c r="H10">
+      <c r="I10">
+        <v>6</v>
+      </c>
+      <c r="J10">
         <v>7</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="P10">
         <v>2</v>
@@ -1104,7 +1146,7 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -1115,14 +1157,14 @@
       <c r="E11">
         <v>6</v>
       </c>
-      <c r="G11">
-        <v>6</v>
-      </c>
-      <c r="H11">
+      <c r="I11">
+        <v>6</v>
+      </c>
+      <c r="J11">
         <v>7</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="P11">
         <v>2</v>
@@ -1130,7 +1172,7 @@
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="O12" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="P12">
         <v>2</v>
@@ -1138,7 +1180,7 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -1146,14 +1188,14 @@
       <c r="E13">
         <v>6</v>
       </c>
-      <c r="G13">
-        <v>6</v>
-      </c>
-      <c r="H13">
+      <c r="I13">
+        <v>6</v>
+      </c>
+      <c r="J13">
         <v>7</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="P13">
         <v>2</v>
@@ -1161,7 +1203,7 @@
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -1169,13 +1211,13 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="P15">
         <v>2</v>
@@ -1183,7 +1225,7 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D16">
         <v>5</v>
@@ -1191,14 +1233,14 @@
       <c r="E16">
         <v>6</v>
       </c>
-      <c r="G16">
-        <v>6</v>
-      </c>
-      <c r="H16">
+      <c r="I16">
+        <v>6</v>
+      </c>
+      <c r="J16">
         <v>7</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="P16">
         <v>2</v>
@@ -1206,13 +1248,13 @@
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="P17">
         <v>2</v>
@@ -1220,13 +1262,13 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="P18">
         <v>2</v>
@@ -1234,7 +1276,7 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="O19" s="3" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="P19">
         <v>2</v>
@@ -1242,16 +1284,16 @@
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D20">
         <v>3</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>4</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="P20">
         <v>2</v>
@@ -1259,7 +1301,7 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -1271,24 +1313,24 @@
         <v>4</v>
       </c>
       <c r="G21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H21" s="1">
-        <v>4</v>
-      </c>
-      <c r="I21" s="1">
-        <v>4</v>
-      </c>
-      <c r="K21">
-        <v>6</v>
-      </c>
-      <c r="L21" s="1">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="J21" s="1">
+        <v>4</v>
+      </c>
+      <c r="K21" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -1296,11 +1338,11 @@
       <c r="D22">
         <v>3</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <v>4</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="Q22">
         <v>2</v>
@@ -1329,7 +1371,7 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -1337,11 +1379,11 @@
       <c r="D23">
         <v>3</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>4</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="Q23">
         <v>2</v>
@@ -1361,7 +1403,7 @@
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="O24" s="3" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="Q24">
         <v>2</v>
@@ -1381,13 +1423,13 @@
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M25" s="2">
         <v>2</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="R25">
         <v>3</v>
@@ -1413,13 +1455,13 @@
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M26" s="2">
         <v>2</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="R26">
         <v>3</v>
@@ -1433,13 +1475,13 @@
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M27" s="2">
         <v>2</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="R27">
         <v>3</v>
@@ -1453,7 +1495,7 @@
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="M28" s="2">
         <v>2</v>
@@ -1461,13 +1503,13 @@
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="M29" s="2">
         <v>2</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="P29">
         <v>3</v>
@@ -1475,13 +1517,13 @@
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M30" s="2">
         <v>2</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="P30">
         <v>3</v>
@@ -1489,13 +1531,13 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="M31" s="2">
         <v>2</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="P31">
         <v>4</v>
@@ -1503,13 +1545,13 @@
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M32" s="2">
         <v>2</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="P32">
         <v>4</v>
@@ -1517,7 +1559,7 @@
     </row>
     <row r="34" spans="15:27" x14ac:dyDescent="0.25">
       <c r="O34" s="3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="AA34">
         <v>7</v>
@@ -1525,15 +1567,15 @@
     </row>
     <row r="35" spans="15:27" x14ac:dyDescent="0.25">
       <c r="O35" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="P35">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A7:M7 Q15:XFD20 O21:XFD21 O3:XFD6 A2:B6 H2:M6 O14:XFD14 Q7:XFD13 O28:XFD34 O22:P24 R22:T24 O25:T27 V22:XFD27 D2:F6 A12:M13 A8:A11 C8:M11 A16:M16 A14:A15 C14:M15 A19:M19 A17:A18 C17:M18 O2:T2 V2:XFD2 O36:XFD1048576 Q35:XFD35 A24:M1048576 A21:B23 D21:F23 A20:F20 H20:M23">
-    <cfRule type="notContainsBlanks" dxfId="15" priority="1">
+  <conditionalFormatting sqref="A7:F7 Q15:XFD20 O21:XFD21 O3:XFD6 A2:B6 O14:XFD14 Q7:XFD13 O28:XFD28 O22:P24 O25:Q27 V22:XFD27 A12:F13 A8:A11 C8:F11 A16:F16 A14:A15 C14:F15 A17:A18 C17:F18 O2:T2 V2:XFD2 O36:XFD1048576 Q35:XFD35 A21:B23 A19:F19 J2:L6 E2:H6 J20:L23 A24:L1048576 M2:M1048576 G7:L19 S22:T27 A20:C20 E20:H23 O33:XFD34 Q29:XFD32">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/opcodes.xlsx
+++ b/opcodes.xlsx
@@ -301,7 +301,35 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="26">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1574,8 +1602,8 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A7:F7 Q15:XFD20 O21:XFD21 O3:XFD6 A2:B6 O14:XFD14 Q7:XFD13 O28:XFD28 O22:P24 O25:Q27 V22:XFD27 A12:F13 A8:A11 C8:F11 A16:F16 A14:A15 C14:F15 A17:A18 C17:F18 O2:T2 V2:XFD2 O36:XFD1048576 Q35:XFD35 A21:B23 A19:F19 J2:L6 E2:H6 J20:L23 A24:L1048576 M2:M1048576 G7:L19 S22:T27 A20:C20 E20:H23 O33:XFD34 Q29:XFD32">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="1">
+  <conditionalFormatting sqref="A7:F7 Q15:XFD20 O21:XFD21 O3:XFD6 A2:B6 O14:XFD14 Q7:XFD13 O28:XFD28 O22:P24 O25:Q27 V22:XFD27 A12:F13 A8:A11 C8:F11 A16:F16 C14:F15 C17:F18 O2:T2 V2:XFD2 O36:XFD1048576 Q35:XFD35 A21:B21 A19:F19 J2:L6 E2:H6 J20:L23 A24:L24 M2:M24 G7:L19 S22:T27 B20:C20 E20:H23 O33:XFD34 Q29:XFD32 B22:B23 B25:L32 A33:M1048576">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/opcodes.xlsx
+++ b/opcodes.xlsx
@@ -263,12 +263,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -292,149 +298,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill>
@@ -495,6 +369,66 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="6" name="Ink 5"/>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="6" name="Ink 5"/>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill/>
+          <xdr:spPr/>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions/>
+  <inkml:traceGroup>
+    <inkml:annotationXML>
+      <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+        <emma:interpretation id="{F5B2CCEE-70EF-40D2-9FC4-8E0CF50E91A8}" emma:medium="tactile" emma:mode="ink">
+          <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="inkDrawing" rotatedBoundingBox="5069,11430 5069,11456 5054,11456 5054,11430" shapeName="Other"/>
+        </emma:interpretation>
+      </emma:emma>
+    </inkml:annotationXML>
+  </inkml:traceGroup>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -924,7 +858,7 @@
       <c r="D2">
         <v>3</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="4">
         <v>4</v>
       </c>
       <c r="G2">
@@ -962,7 +896,7 @@
       <c r="D3">
         <v>3</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
         <v>4</v>
       </c>
       <c r="G3">
@@ -997,7 +931,7 @@
       <c r="D4">
         <v>3</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="4">
         <v>4</v>
       </c>
       <c r="G4">
@@ -1032,7 +966,7 @@
       <c r="D5">
         <v>3</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
         <v>4</v>
       </c>
       <c r="G5">
@@ -1067,7 +1001,7 @@
       <c r="D6">
         <v>3</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <v>4</v>
       </c>
       <c r="G6">
@@ -1101,13 +1035,13 @@
       <c r="B8">
         <v>2</v>
       </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>6</v>
-      </c>
-      <c r="I8">
+      <c r="D8" s="4">
+        <v>5</v>
+      </c>
+      <c r="E8" s="4">
+        <v>6</v>
+      </c>
+      <c r="I8" s="4">
         <v>6</v>
       </c>
       <c r="J8">
@@ -1127,13 +1061,13 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>6</v>
-      </c>
-      <c r="I9">
+      <c r="D9" s="4">
+        <v>5</v>
+      </c>
+      <c r="E9" s="4">
+        <v>6</v>
+      </c>
+      <c r="I9" s="4">
         <v>6</v>
       </c>
       <c r="J9">
@@ -1153,13 +1087,13 @@
       <c r="B10">
         <v>2</v>
       </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <v>6</v>
-      </c>
-      <c r="I10">
+      <c r="D10" s="4">
+        <v>5</v>
+      </c>
+      <c r="E10" s="4">
+        <v>6</v>
+      </c>
+      <c r="I10" s="4">
         <v>6</v>
       </c>
       <c r="J10">
@@ -1179,13 +1113,13 @@
       <c r="B11">
         <v>2</v>
       </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <v>6</v>
-      </c>
-      <c r="I11">
+      <c r="D11" s="4">
+        <v>5</v>
+      </c>
+      <c r="E11" s="4">
+        <v>6</v>
+      </c>
+      <c r="I11" s="4">
         <v>6</v>
       </c>
       <c r="J11">
@@ -1210,13 +1144,13 @@
       <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="D13">
-        <v>5</v>
-      </c>
-      <c r="E13">
-        <v>6</v>
-      </c>
-      <c r="I13">
+      <c r="D13" s="4">
+        <v>5</v>
+      </c>
+      <c r="E13" s="4">
+        <v>6</v>
+      </c>
+      <c r="I13" s="4">
         <v>6</v>
       </c>
       <c r="J13">
@@ -1255,13 +1189,13 @@
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="D16">
-        <v>5</v>
-      </c>
-      <c r="E16">
-        <v>6</v>
-      </c>
-      <c r="I16">
+      <c r="D16" s="4">
+        <v>5</v>
+      </c>
+      <c r="E16" s="4">
+        <v>6</v>
+      </c>
+      <c r="I16" s="4">
         <v>6</v>
       </c>
       <c r="J16">
@@ -1337,7 +1271,7 @@
       <c r="D21">
         <v>3</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="4">
         <v>4</v>
       </c>
       <c r="G21">
@@ -1378,7 +1312,7 @@
       <c r="R22">
         <v>3</v>
       </c>
-      <c r="S22">
+      <c r="S22" s="4">
         <v>4</v>
       </c>
       <c r="U22">
@@ -1439,7 +1373,7 @@
       <c r="R24">
         <v>3</v>
       </c>
-      <c r="S24">
+      <c r="S24" s="4">
         <v>4</v>
       </c>
       <c r="U24">
@@ -1462,7 +1396,7 @@
       <c r="R25">
         <v>3</v>
       </c>
-      <c r="S25">
+      <c r="S25" s="4">
         <v>4</v>
       </c>
       <c r="U25">
@@ -1514,7 +1448,7 @@
       <c r="R27">
         <v>3</v>
       </c>
-      <c r="S27">
+      <c r="S27" s="4">
         <v>4</v>
       </c>
       <c r="U27">
@@ -1602,12 +1536,13 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A7:F7 Q15:XFD20 O21:XFD21 O3:XFD6 A2:B6 O14:XFD14 Q7:XFD13 O28:XFD28 O22:P24 O25:Q27 V22:XFD27 A12:F13 A8:A11 C8:F11 A16:F16 C14:F15 C17:F18 O2:T2 V2:XFD2 O36:XFD1048576 Q35:XFD35 A21:B21 A19:F19 J2:L6 E2:H6 J20:L23 A24:L24 M2:M24 G7:L19 S22:T27 B20:C20 E20:H23 O33:XFD34 Q29:XFD32 B22:B23 B25:L32 A33:M1048576">
-    <cfRule type="notContainsBlanks" dxfId="8" priority="1">
+  <conditionalFormatting sqref="Q15:XFD20 O21:XFD21 O3:XFD6 A2:B6 O14:XFD14 Q7:XFD13 O28:XFD28 O22:P24 O25:Q27 V22:XFD27 A8:A11 C8:C11 A16:C16 C17:F18 O2:T2 V2:XFD2 O36:XFD1048576 Q35:XFD35 A21:B21 A19:F19 J2:L6 F2:H6 J20:L23 A24:L24 M2:M24 A7:L7 S23:T23 B20:C20 E20:H20 O33:XFD34 Q29:XFD32 B22:B23 B25:L32 A33:M1048576 A12:L12 F8:H11 J8:L11 A13:C13 C14:L15 F13:H13 J13:L13 G17:L19 J16:L16 F16:H16 T27 S26:T26 T24:T25 T22 E22:H23 F21:H21">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/opcodes.xlsx
+++ b/opcodes.xlsx
@@ -308,7 +308,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1353,7 +1360,7 @@
       <c r="R23">
         <v>3</v>
       </c>
-      <c r="T23">
+      <c r="T23" s="4">
         <v>4</v>
       </c>
       <c r="U23">
@@ -1428,7 +1435,7 @@
       <c r="R26">
         <v>3</v>
       </c>
-      <c r="T26">
+      <c r="T26" s="4">
         <v>4</v>
       </c>
       <c r="U26">
@@ -1536,8 +1543,8 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="Q15:XFD20 O21:XFD21 O3:XFD6 A2:B6 O14:XFD14 Q7:XFD13 O28:XFD28 O22:P24 O25:Q27 V22:XFD27 A8:A11 C8:C11 A16:C16 C17:F18 O2:T2 V2:XFD2 O36:XFD1048576 Q35:XFD35 A21:B21 A19:F19 J2:L6 F2:H6 J20:L23 A24:L24 M2:M24 A7:L7 S23:T23 B20:C20 E20:H20 O33:XFD34 Q29:XFD32 B22:B23 B25:L32 A33:M1048576 A12:L12 F8:H11 J8:L11 A13:C13 C14:L15 F13:H13 J13:L13 G17:L19 J16:L16 F16:H16 T27 S26:T26 T24:T25 T22 E22:H23 F21:H21">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="1">
+  <conditionalFormatting sqref="Q15:XFD20 O21:XFD21 O3:XFD6 A2:B6 O14:XFD14 Q7:XFD13 O28:XFD28 O22:P24 O25:Q27 V22:XFD27 A8:A11 C8:C11 A16:C16 C17:F18 O2:T2 V2:XFD2 O36:XFD1048576 Q35:XFD35 A21:B21 A19:F19 J2:L6 F2:H6 J20:L23 A24:L24 M2:M24 A7:L7 S23 B20:C20 E20:H20 O33:XFD34 Q29:XFD32 B22:B23 B25:L32 A33:M1048576 A12:L12 F8:H11 J8:L11 A13:C13 C14:L15 F13:H13 J13:L13 G17:L19 J16:L16 F16:H16 T27 S26 T24:T25 T22 E22:H23 F21:H21">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/opcodes.xlsx
+++ b/opcodes.xlsx
@@ -308,7 +308,56 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1051,7 +1100,7 @@
       <c r="I8" s="4">
         <v>6</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="4">
         <v>7</v>
       </c>
       <c r="O8" s="3" t="s">
@@ -1077,7 +1126,7 @@
       <c r="I9" s="4">
         <v>6</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="4">
         <v>7</v>
       </c>
       <c r="O9" s="3" t="s">
@@ -1103,7 +1152,7 @@
       <c r="I10" s="4">
         <v>6</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="4">
         <v>7</v>
       </c>
       <c r="O10" s="3" t="s">
@@ -1129,7 +1178,7 @@
       <c r="I11" s="4">
         <v>6</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="4">
         <v>7</v>
       </c>
       <c r="O11" s="3" t="s">
@@ -1160,7 +1209,7 @@
       <c r="I13" s="4">
         <v>6</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="4">
         <v>7</v>
       </c>
       <c r="O13" s="3" t="s">
@@ -1205,7 +1254,7 @@
       <c r="I16" s="4">
         <v>6</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="4">
         <v>7</v>
       </c>
       <c r="O16" s="3" t="s">
@@ -1409,10 +1458,10 @@
       <c r="U25">
         <v>4</v>
       </c>
-      <c r="V25">
+      <c r="V25" s="4">
         <v>5</v>
       </c>
-      <c r="W25">
+      <c r="W25" s="4">
         <v>5</v>
       </c>
       <c r="Y25">
@@ -1543,8 +1592,8 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="Q15:XFD20 O21:XFD21 O3:XFD6 A2:B6 O14:XFD14 Q7:XFD13 O28:XFD28 O22:P24 O25:Q27 V22:XFD27 A8:A11 C8:C11 A16:C16 C17:F18 O2:T2 V2:XFD2 O36:XFD1048576 Q35:XFD35 A21:B21 A19:F19 J2:L6 F2:H6 J20:L23 A24:L24 M2:M24 A7:L7 S23 B20:C20 E20:H20 O33:XFD34 Q29:XFD32 B22:B23 B25:L32 A33:M1048576 A12:L12 F8:H11 J8:L11 A13:C13 C14:L15 F13:H13 J13:L13 G17:L19 J16:L16 F16:H16 T27 S26 T24:T25 T22 E22:H23 F21:H21">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="1">
+  <conditionalFormatting sqref="Q15:XFD20 O21:XFD21 O3:XFD6 A2:B6 O14:XFD14 Q7:XFD13 O28:XFD28 O22:P24 O25:Q27 A8:A11 C8:C11 A16:C16 C17:F18 O2:T2 V2:XFD2 O36:XFD1048576 Q35:XFD35 A21:B21 A19:F19 L2:L6 F2:H6 J20:L20 A24:L24 M2:M24 A7:L7 S23 B20:C20 E20:H20 O33:XFD34 Q29:XFD32 B22:B23 B25:L32 A33:M1048576 A12:L12 F8:H11 K8:L11 A13:C13 C14:L15 F13:H13 K13:L13 G17:L19 K16:L16 F16:H16 T27 S26 T24:T25 T22 E22:H23 F21:H21 V26:XFD27 W24:XFD24 V23 X22:XFD23 X25:XFD25 J22:L23 L21">
+    <cfRule type="notContainsBlanks" dxfId="14" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/opcodes.xlsx
+++ b/opcodes.xlsx
@@ -308,7 +308,49 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="21">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1592,8 +1634,8 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="Q15:XFD20 O21:XFD21 O3:XFD6 A2:B6 O14:XFD14 Q7:XFD13 O28:XFD28 O22:P24 O25:Q27 A8:A11 C8:C11 A16:C16 C17:F18 O2:T2 V2:XFD2 O36:XFD1048576 Q35:XFD35 A21:B21 A19:F19 L2:L6 F2:H6 J20:L20 A24:L24 M2:M24 A7:L7 S23 B20:C20 E20:H20 O33:XFD34 Q29:XFD32 B22:B23 B25:L32 A33:M1048576 A12:L12 F8:H11 K8:L11 A13:C13 C14:L15 F13:H13 K13:L13 G17:L19 K16:L16 F16:H16 T27 S26 T24:T25 T22 E22:H23 F21:H21 V26:XFD27 W24:XFD24 V23 X22:XFD23 X25:XFD25 J22:L23 L21">
-    <cfRule type="notContainsBlanks" dxfId="14" priority="1">
+  <conditionalFormatting sqref="Q15:XFD20 O21:XFD21 O3:XFD6 A2:B6 O14:XFD14 Q7:XFD13 O28:XFD28 O22:P22 O25:Q25 C8:C11 B16:C16 C17:F18 O2:T2 V2:XFD2 O36:XFD1048576 Q35:XFD35 A21:B21 A19:F19 L2:L6 F2:F6 J20:L20 A24:L24 M2:M24 A7:L7 S23 B20:C20 E20:H20 O33:XFD34 Q29:XFD32 B22:B23 B25:L32 A33:M1048576 A12:L12 F8:H11 K8:L11 B13:C13 C14:L15 F13:H13 K13:L13 G17:L19 K16:L16 F16:H16 T27 S26 T24:T25 T22 E22:H23 F21 V26:XFD27 W24:XFD24 V23 X23:XFD23 X25 J22:L23 L21 P26:Q27 P23:P24 H2:H6 H21 X22 Z22:XFD22 Z25:XFD25">
+    <cfRule type="notContainsBlanks" dxfId="20" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/opcodes.xlsx
+++ b/opcodes.xlsx
@@ -308,112 +308,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -484,8 +379,8 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="6" name="Ink 5"/>
@@ -498,7 +393,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="6" name="Ink 5"/>
@@ -959,7 +854,7 @@
       <c r="E2" s="4">
         <v>4</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="4">
         <v>6</v>
       </c>
       <c r="H2" s="1">
@@ -997,7 +892,7 @@
       <c r="E3" s="4">
         <v>4</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="4">
         <v>6</v>
       </c>
       <c r="H3" s="1">
@@ -1032,7 +927,7 @@
       <c r="E4" s="4">
         <v>4</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="4">
         <v>6</v>
       </c>
       <c r="H4" s="1">
@@ -1067,7 +962,7 @@
       <c r="E5" s="4">
         <v>4</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="4">
         <v>6</v>
       </c>
       <c r="H5" s="1">
@@ -1102,7 +997,7 @@
       <c r="E6" s="4">
         <v>4</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="4">
         <v>6</v>
       </c>
       <c r="H6" s="1">
@@ -1372,7 +1267,7 @@
       <c r="E21" s="4">
         <v>4</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="4">
         <v>6</v>
       </c>
       <c r="H21" s="1">
@@ -1422,7 +1317,7 @@
       <c r="W22" s="1">
         <v>4</v>
       </c>
-      <c r="Y22">
+      <c r="Y22" s="4">
         <v>6</v>
       </c>
       <c r="Z22" s="1">
@@ -1506,10 +1401,10 @@
       <c r="W25" s="4">
         <v>5</v>
       </c>
-      <c r="Y25">
-        <v>6</v>
-      </c>
-      <c r="Z25">
+      <c r="Y25" s="4">
+        <v>6</v>
+      </c>
+      <c r="Z25" s="4">
         <v>6</v>
       </c>
     </row>
@@ -1634,8 +1529,8 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="Q15:XFD20 O21:XFD21 O3:XFD6 A2:B6 O14:XFD14 Q7:XFD13 O28:XFD28 O22:P22 O25:Q25 C8:C11 B16:C16 C17:F18 O2:T2 V2:XFD2 O36:XFD1048576 Q35:XFD35 A21:B21 A19:F19 L2:L6 F2:F6 J20:L20 A24:L24 M2:M24 A7:L7 S23 B20:C20 E20:H20 O33:XFD34 Q29:XFD32 B22:B23 B25:L32 A33:M1048576 A12:L12 F8:H11 K8:L11 B13:C13 C14:L15 F13:H13 K13:L13 G17:L19 K16:L16 F16:H16 T27 S26 T24:T25 T22 E22:H23 F21 V26:XFD27 W24:XFD24 V23 X23:XFD23 X25 J22:L23 L21 P26:Q27 P23:P24 H2:H6 H21 X22 Z22:XFD22 Z25:XFD25">
-    <cfRule type="notContainsBlanks" dxfId="20" priority="1">
+  <conditionalFormatting sqref="Q15:XFD20 O21:XFD21 O3:XFD6 B2:B6 O14:XFD14 Q7:XFD13 O28:XFD28 C8:C11 B16:C16 C17:F18 O2:T2 V2:XFD2 O36:XFD1048576 Q35:XFD35 A19:F19 L2:L6 F2:F6 J20:L20 A24:L24 M2:M24 A7:L7 S23 B20:C20 E20:H20 O33:XFD34 Q29:XFD32 B21:B23 B25:L32 A33:M1048576 A12:L12 F8:H11 K8:L11 B13:C13 C14:L15 F13:H13 K13:L13 G17:L19 K16:L16 F16:H16 T27 S26 T24:T25 T22 E22:H23 F21 V26:XFD27 W24:XFD24 V23 X23:XFD23 X25 J22:L23 L21 P25:Q27 P22:P24 X22 AA22:XFD22 AA25:XFD25">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/opcodes.xlsx
+++ b/opcodes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -308,7 +308,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1529,8 +1536,8 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="Q15:XFD20 O21:XFD21 O3:XFD6 B2:B6 O14:XFD14 Q7:XFD13 O28:XFD28 C8:C11 B16:C16 C17:F18 O2:T2 V2:XFD2 O36:XFD1048576 Q35:XFD35 A19:F19 L2:L6 F2:F6 J20:L20 A24:L24 M2:M24 A7:L7 S23 B20:C20 E20:H20 O33:XFD34 Q29:XFD32 B21:B23 B25:L32 A33:M1048576 A12:L12 F8:H11 K8:L11 B13:C13 C14:L15 F13:H13 K13:L13 G17:L19 K16:L16 F16:H16 T27 S26 T24:T25 T22 E22:H23 F21 V26:XFD27 W24:XFD24 V23 X23:XFD23 X25 J22:L23 L21 P25:Q27 P22:P24 X22 AA22:XFD22 AA25:XFD25">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="1">
+  <conditionalFormatting sqref="Q15:XFD20 O21:XFD21 O3:XFD6 B2:B6 O14:XFD14 Q7:XFD13 O28:XFD28 C8:C11 B16:C16 C17:F18 P2:T2 V2:W2 O36:XFD1048576 Q35:XFD35 A19:F19 L2:L6 F2:F6 J20:L20 A24:L24 M2:M24 A7:L7 S23 B20:C20 E20:H20 O33:XFD34 Q29:XFD32 B21:B23 B25:L32 A33:M1048576 A12:L12 F8:H11 K8:L11 B13:C13 C14:L15 F13:H13 K13:L13 G17:L19 K16:L16 F16:H16 T27 S26 T24:T25 T22 E22:H23 F21 V26:XFD27 W24:XFD24 V23 X23:XFD23 X25 J22:L23 L21 P25:Q27 P22:P24 X22 AA22:XFD22 AA25:XFD25 Y2:XFD2">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/opcodes.xlsx
+++ b/opcodes.xlsx
@@ -308,7 +308,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1536,8 +1543,8 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="Q15:XFD20 O21:XFD21 O3:XFD6 B2:B6 O14:XFD14 Q7:XFD13 O28:XFD28 C8:C11 B16:C16 C17:F18 P2:T2 V2:W2 O36:XFD1048576 Q35:XFD35 A19:F19 L2:L6 F2:F6 J20:L20 A24:L24 M2:M24 A7:L7 S23 B20:C20 E20:H20 O33:XFD34 Q29:XFD32 B21:B23 B25:L32 A33:M1048576 A12:L12 F8:H11 K8:L11 B13:C13 C14:L15 F13:H13 K13:L13 G17:L19 K16:L16 F16:H16 T27 S26 T24:T25 T22 E22:H23 F21 V26:XFD27 W24:XFD24 V23 X23:XFD23 X25 J22:L23 L21 P25:Q27 P22:P24 X22 AA22:XFD22 AA25:XFD25 Y2:XFD2">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="1">
+  <conditionalFormatting sqref="Q15:XFD20 O21:XFD21 O4:XFD6 B2:B6 O14:XFD14 Q7:XFD13 O28:XFD28 C8:C11 B16:C16 C17:F18 V2:W2 O36:XFD1048576 Q35:XFD35 A19:F19 L2:L6 F2:F6 J20:L20 A24:L24 M2:M24 A7:L7 S23 B20:C20 E20:H20 O33:XFD34 Q29:XFD32 B21:B23 B25:L32 A33:M1048576 A12:L12 F8:H11 K8:L11 B13:C13 C14:L15 F13:H13 K13:L13 G17:L19 K16:L16 F16:H16 T27 S26 T24:T25 T22 E22:H23 F21 V26:XFD27 W24:XFD24 V23 X23:XFD23 X25 J22:L23 L21 P25:Q27 P22:P24 X22 AA22:XFD22 AA25:XFD25 Y2:XFD2 P2:T3 V3:XFD3">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/opcodes.xlsx
+++ b/opcodes.xlsx
@@ -308,7 +308,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1543,8 +1550,8 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="Q15:XFD20 O21:XFD21 O4:XFD6 B2:B6 O14:XFD14 Q7:XFD13 O28:XFD28 C8:C11 B16:C16 C17:F18 V2:W2 O36:XFD1048576 Q35:XFD35 A19:F19 L2:L6 F2:F6 J20:L20 A24:L24 M2:M24 A7:L7 S23 B20:C20 E20:H20 O33:XFD34 Q29:XFD32 B21:B23 B25:L32 A33:M1048576 A12:L12 F8:H11 K8:L11 B13:C13 C14:L15 F13:H13 K13:L13 G17:L19 K16:L16 F16:H16 T27 S26 T24:T25 T22 E22:H23 F21 V26:XFD27 W24:XFD24 V23 X23:XFD23 X25 J22:L23 L21 P25:Q27 P22:P24 X22 AA22:XFD22 AA25:XFD25 Y2:XFD2 P2:T3 V3:XFD3">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="1">
+  <conditionalFormatting sqref="Q15:XFD20 O21:XFD21 O4:XFD4 B2:B6 O14:XFD14 Q7:XFD13 O28:XFD28 C8:C11 B16:C16 C17:F18 V2:W2 O36:XFD1048576 Q35:XFD35 A19:F19 L2:L6 F2:F6 J20:L20 A24:L24 M2:M24 A7:L7 S23 B20:C20 E20:H20 O33:XFD34 Q29:XFD32 B21:B23 B25:L32 A33:M1048576 A12:L12 F8:H11 K8:L11 B13:C13 C14:L15 F13:H13 K13:L13 G17:L19 K16:L16 F16:H16 T27 S26 T24:T25 T22 E22:H23 F21 V26:XFD27 W24:XFD24 V23 X23:XFD23 X25 J22:L23 L21 P25:Q27 P22:P24 X22 AA22:XFD22 AA25:XFD25 Y2:XFD2 P2:T3 V3:XFD3 O6:XFD6 Q5:XFD5">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/opcodes.xlsx
+++ b/opcodes.xlsx
@@ -308,63 +308,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -1533,15 +1477,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="15:27" x14ac:dyDescent="0.25">
+    <row r="34" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O34" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AA34">
+      <c r="P34">
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="15:27" x14ac:dyDescent="0.25">
+    <row r="35" spans="15:16" x14ac:dyDescent="0.25">
       <c r="O35" s="3" t="s">
         <v>59</v>
       </c>
@@ -1551,7 +1495,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="Q15:XFD20 O21:XFD21 O4:XFD4 B2:B6 O14:XFD14 Q7:XFD13 O28:XFD28 C8:C11 B16:C16 C17:F18 V2:W2 O36:XFD1048576 Q35:XFD35 A19:F19 L2:L6 F2:F6 J20:L20 A24:L24 M2:M24 A7:L7 S23 B20:C20 E20:H20 O33:XFD34 Q29:XFD32 B21:B23 B25:L32 A33:M1048576 A12:L12 F8:H11 K8:L11 B13:C13 C14:L15 F13:H13 K13:L13 G17:L19 K16:L16 F16:H16 T27 S26 T24:T25 T22 E22:H23 F21 V26:XFD27 W24:XFD24 V23 X23:XFD23 X25 J22:L23 L21 P25:Q27 P22:P24 X22 AA22:XFD22 AA25:XFD25 Y2:XFD2 P2:T3 V3:XFD3 O6:XFD6 Q5:XFD5">
-    <cfRule type="notContainsBlanks" dxfId="8" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/opcodes.xlsx
+++ b/opcodes.xlsx
@@ -308,7 +308,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1494,8 +1501,8 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="Q15:XFD20 O21:XFD21 O4:XFD4 B2:B6 O14:XFD14 Q7:XFD13 O28:XFD28 C8:C11 B16:C16 C17:F18 V2:W2 O36:XFD1048576 Q35:XFD35 A19:F19 L2:L6 F2:F6 J20:L20 A24:L24 M2:M24 A7:L7 S23 B20:C20 E20:H20 O33:XFD34 Q29:XFD32 B21:B23 B25:L32 A33:M1048576 A12:L12 F8:H11 K8:L11 B13:C13 C14:L15 F13:H13 K13:L13 G17:L19 K16:L16 F16:H16 T27 S26 T24:T25 T22 E22:H23 F21 V26:XFD27 W24:XFD24 V23 X23:XFD23 X25 J22:L23 L21 P25:Q27 P22:P24 X22 AA22:XFD22 AA25:XFD25 Y2:XFD2 P2:T3 V3:XFD3 O6:XFD6 Q5:XFD5">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+  <conditionalFormatting sqref="Q15:XFD20 O21:XFD21 O4:XFD4 B2:B6 O14:XFD14 Q7:XFD13 O28:XFD28 C8:C11 B16:C16 C17:F18 V2:W2 O36:XFD1048576 A19:F19 L2:L6 F2:F6 J20:L20 A24:L24 M2:M24 A7:L7 S23 B20:C20 E20:H20 O33:XFD33 Q29:XFD32 B21:B23 B25:L32 A33:M1048576 A12:L12 F8:H11 K8:L11 B13:C13 C14:L15 F13:H13 K13:L13 G17:L19 K16:L16 F16:H16 T27 S26 T24:T25 T22 E22:H23 F21 V26:XFD27 W24:XFD24 V23 X23:XFD23 X25 J22:L23 L21 P25:Q27 P22:P24 X22 AA22:XFD22 AA25:XFD25 Y2:XFD2 P2:T3 V3:XFD3 O6:XFD6 Q5:XFD5 Q34:XFD35">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/opcodes.xlsx
+++ b/opcodes.xlsx
@@ -308,14 +308,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -699,7 +692,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -952,7 +945,7 @@
       <c r="O5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="4">
         <v>6</v>
       </c>
     </row>
@@ -1502,7 +1495,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="Q15:XFD20 O21:XFD21 O4:XFD4 B2:B6 O14:XFD14 Q7:XFD13 O28:XFD28 C8:C11 B16:C16 C17:F18 V2:W2 O36:XFD1048576 A19:F19 L2:L6 F2:F6 J20:L20 A24:L24 M2:M24 A7:L7 S23 B20:C20 E20:H20 O33:XFD33 Q29:XFD32 B21:B23 B25:L32 A33:M1048576 A12:L12 F8:H11 K8:L11 B13:C13 C14:L15 F13:H13 K13:L13 G17:L19 K16:L16 F16:H16 T27 S26 T24:T25 T22 E22:H23 F21 V26:XFD27 W24:XFD24 V23 X23:XFD23 X25 J22:L23 L21 P25:Q27 P22:P24 X22 AA22:XFD22 AA25:XFD25 Y2:XFD2 P2:T3 V3:XFD3 O6:XFD6 Q5:XFD5 Q34:XFD35">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/opcodes.xlsx
+++ b/opcodes.xlsx
@@ -308,7 +308,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -692,7 +699,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P5" sqref="P5"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1494,8 +1501,8 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="Q15:XFD20 O21:XFD21 O4:XFD4 B2:B6 O14:XFD14 Q7:XFD13 O28:XFD28 C8:C11 B16:C16 C17:F18 V2:W2 O36:XFD1048576 A19:F19 L2:L6 F2:F6 J20:L20 A24:L24 M2:M24 A7:L7 S23 B20:C20 E20:H20 O33:XFD33 Q29:XFD32 B21:B23 B25:L32 A33:M1048576 A12:L12 F8:H11 K8:L11 B13:C13 C14:L15 F13:H13 K13:L13 G17:L19 K16:L16 F16:H16 T27 S26 T24:T25 T22 E22:H23 F21 V26:XFD27 W24:XFD24 V23 X23:XFD23 X25 J22:L23 L21 P25:Q27 P22:P24 X22 AA22:XFD22 AA25:XFD25 Y2:XFD2 P2:T3 V3:XFD3 O6:XFD6 Q5:XFD5 Q34:XFD35">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+  <conditionalFormatting sqref="Q15:XFD20 O21:XFD21 B2:B6 O14:XFD14 Q7:XFD13 O28:XFD28 C8:C11 B16:C16 C17:F18 V2:W2 O36:XFD1048576 A19:F19 L2:L6 F2:F6 J20:L20 A24:L24 M2:M24 A7:L7 S23 B20:C20 E20:H20 O33:XFD33 Q29:XFD32 B21:B23 B25:L32 A33:M1048576 A12:L12 F8:H11 K8:L11 B13:C13 C14:L15 F13:H13 K13:L13 G17:L19 K16:L16 F16:H16 T27 S26 T24:T25 T22 E22:H23 F21 V26:XFD27 W24:XFD24 V23 X23:XFD23 X25 J22:L23 L21 P25:Q27 P22:P24 X22 AA22:XFD22 AA25:XFD25 Y2:XFD2 P2:T3 V3:XFD3 O6:XFD6 Q4:XFD5 Q34:XFD35">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
